--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIRAI\programs\PBL_stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryosh\Documents\PBL_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{652AACD6-BEB7-4EA5-BDF6-C879B436E002}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAC6408-AE7F-424D-ABC7-50DD8AD1DA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8124" xr2:uid="{18099396-2E89-4528-837F-333B28B9C334}"/>
+    <workbookView xWindow="285" yWindow="0" windowWidth="30450" windowHeight="20985" xr2:uid="{18099396-2E89-4528-837F-333B28B9C334}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -130,6 +141,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -190,6 +208,904 @@
       <c:layout/>
       <c:ofPieChart>
         <c:ofPieType val="pie"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BC55-4172-87DE-F5CBFCEDEE3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BC55-4172-87DE-F5CBFCEDEE3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BC55-4172-87DE-F5CBFCEDEE3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BC55-4172-87DE-F5CBFCEDEE3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-BC55-4172-87DE-F5CBFCEDEE3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-BC55-4172-87DE-F5CBFCEDEE3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-BC55-4172-87DE-F5CBFCEDEE3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-BC55-4172-87DE-F5CBFCEDEE3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-BC55-4172-87DE-F5CBFCEDEE3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-BC55-4172-87DE-F5CBFCEDEE3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="6">
+                  <c:v>投資信託</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>国内株式</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>米国株式</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="6">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C39-4BE5-92F2-9956B23E657D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2937-47A2-BB4D-527A6A68969E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2937-47A2-BB4D-527A6A68969E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2937-47A2-BB4D-527A6A68969E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2937-47A2-BB4D-527A6A68969E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF3300"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2937-47A2-BB4D-527A6A68969E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$11:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMZN アマゾンドットコム</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM アーム ホールディングス</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GOOGL アルファベット A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NVDA エヌビディア</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TSM 台湾セミコンダクター ADR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$11:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0505866715959407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.391287508692248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5153819747022634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.081024936843683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9617189081658708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1952-46E8-B858-A31CCE05B120}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-75A2-4E7F-8BA7-D91D9BB1DB12}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-75A2-4E7F-8BA7-D91D9BB1DB12}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF3399"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-75A2-4E7F-8BA7-D91D9BB1DB12}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$8:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>投資信託</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>国内株式</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>米国株式</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$8:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75A2-4E7F-8BA7-D91D9BB1DB12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:ofPieChart>
+        <c:ofPieType val="bar"/>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
@@ -335,91 +1251,74 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>Sheet1!$D$8:$D$15</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>投資信託</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>国内株式</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>米国株式</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>AMZN アマゾンドットコム</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>ARM アーム ホールディングス</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>GOOGL アルファベット A</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>NVDA エヌビディア</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>TSM 台湾セミコンダクター ADR</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>投資信託</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>国内株式</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>米国株式</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:f>Sheet1!$E$8:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4.0505866715959407</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>21.391287508692248</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>7.5153819747022634</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>60.081024936843683</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>6.9617189081658708</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C39-4BE5-92F2-9956B23E657D}"/>
+              <c16:uniqueId val="{00000000-A999-47B8-9CE4-9EA54766072D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -433,6 +1332,8 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
+        <c:splitType val="pos"/>
+        <c:splitPos val="5"/>
         <c:secondPieSize val="75"/>
         <c:serLines>
           <c:spPr>
@@ -449,280 +1350,6 @@
           </c:spPr>
         </c:serLines>
       </c:ofPieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>AMZN アマゾンドットコム</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARM アーム ホールディングス</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>GOOGL アルファベット A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>NVDA エヌビディア</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TSM 台湾セミコンダクター ADR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.0505866715959407</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.391287508692248</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5153819747022634</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.081024936843683</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.9617189081658708</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1952-46E8-B858-A31CCE05B120}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -886,6 +1513,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
   <cs:axisTitle>
@@ -1931,20 +2638,1065 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>188595</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1971,16 +3723,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>415290</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2005,13 +3757,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2172DE30-313C-DCDC-19BA-E2EAFE897149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40EB95E4-6764-75E2-DB78-3B9E97B4BFAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2049,7 +3873,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2155,7 +3979,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2297,7 +4121,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2305,119 +4129,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0819EC9-0815-4887-B40D-DEFB505EBFAA}">
-  <dimension ref="D2:H10"/>
+  <dimension ref="D8:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="29.796875" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <f>(F2/F7)*100</f>
-        <v>4.0505866715959407</v>
-      </c>
-      <c r="F2">
-        <f>G2*H2</f>
-        <v>184.07</v>
-      </c>
-      <c r="G2">
-        <v>184.07</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <f>(F3/F7)*100</f>
-        <v>21.391287508692248</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">G3*H3</f>
-        <v>972.08</v>
-      </c>
-      <c r="G3">
-        <v>121.51</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <f>(F4/F7)*100</f>
-        <v>7.5153819747022634</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>341.52</v>
-      </c>
-      <c r="G4">
-        <v>170.76</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <f>(F5/F7)*100</f>
-        <v>60.081024936843683</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>2730.25</v>
-      </c>
-      <c r="G5">
-        <v>109.21</v>
-      </c>
-      <c r="H5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <f>(F6/F7)*100</f>
-        <v>6.9617189081658708</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>316.36</v>
-      </c>
-      <c r="G6">
-        <v>158.18</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="F7">
-        <f>SUM(F2:F6)</f>
-        <v>4544.28</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +4148,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>1</v>
       </c>
@@ -2433,12 +4156,113 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10">
         <v>40.5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f>(F11/F16)*100</f>
+        <v>4.0505866715959407</v>
+      </c>
+      <c r="F11">
+        <f>G11*H11</f>
+        <v>184.07</v>
+      </c>
+      <c r="G11">
+        <v>184.07</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f>(F12/F16)*100</f>
+        <v>21.391287508692248</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F15" si="0">G12*H12</f>
+        <v>972.08</v>
+      </c>
+      <c r="G12">
+        <v>121.51</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <f>(F13/F16)*100</f>
+        <v>7.5153819747022634</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>341.52</v>
+      </c>
+      <c r="G13">
+        <v>170.76</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <f>(F14/F16)*100</f>
+        <v>60.081024936843683</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2730.25</v>
+      </c>
+      <c r="G14">
+        <v>109.21</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <f>(F15/F16)*100</f>
+        <v>6.9617189081658708</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>316.36</v>
+      </c>
+      <c r="G15">
+        <v>158.18</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="F16">
+        <f>SUM(F11:F15)</f>
+        <v>4544.28</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryosh\Documents\PBL_stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryo\Documents\PBL_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAC6408-AE7F-424D-ABC7-50DD8AD1DA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D386B7B4-4044-455F-BE6C-6AA46F84760C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="0" windowWidth="30450" windowHeight="20985" xr2:uid="{18099396-2E89-4528-837F-333B28B9C334}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{18099396-2E89-4528-837F-333B28B9C334}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,18 +92,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -137,7 +137,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -162,7 +162,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -187,7 +187,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -510,7 +510,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -573,7 +573,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -597,9 +597,8 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
@@ -660,9 +659,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF3300"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -682,7 +679,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF3300"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -703,7 +703,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>AMZN アマゾンドットコム</c:v>
+                  <c:v>NVDA エヌビディア</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ARM アーム ホールディングス</c:v>
@@ -712,10 +712,10 @@
                   <c:v>GOOGL アルファベット A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NVDA エヌビディア</c:v>
+                  <c:v>TSM 台湾セミコンダクター ADR</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TSM 台湾セミコンダクター ADR</c:v>
+                  <c:v>AMZN アマゾンドットコム</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -727,19 +727,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.0505866715959407</c:v>
+                  <c:v>62.617396868499455</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.391287508692248</c:v>
+                  <c:v>22.294339034129091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5153819747022634</c:v>
+                  <c:v>7.8326502622580101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.081024936843683</c:v>
+                  <c:v>7.2556138351134463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9617189081658708</c:v>
+                  <c:v>4.2215856575715387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,7 +770,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -796,7 +796,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -845,7 +845,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -985,7 +985,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1011,7 +1011,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1060,7 +1060,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1085,7 +1085,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1124,6 +1124,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D4AA-483B-9E51-89D9C5F83CC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1139,6 +1144,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D4AA-483B-9E51-89D9C5F83CC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1154,6 +1164,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D4AA-483B-9E51-89D9C5F83CC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1169,6 +1184,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D4AA-483B-9E51-89D9C5F83CC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1184,6 +1204,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D4AA-483B-9E51-89D9C5F83CC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1199,6 +1224,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D4AA-483B-9E51-89D9C5F83CC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1216,6 +1246,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D4AA-483B-9E51-89D9C5F83CC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1233,6 +1268,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-D4AA-483B-9E51-89D9C5F83CC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1250,12 +1290,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-D4AA-483B-9E51-89D9C5F83CC7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$8:$D$15</c:f>
+              <c:f>Sheet1!$D$8:$D$14</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>投資信託</c:v>
                 </c:pt>
@@ -1266,7 +1311,7 @@
                   <c:v>米国株式</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AMZN アマゾンドットコム</c:v>
+                  <c:v>NVDA エヌビディア</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ARM アーム ホールディングス</c:v>
@@ -1275,9 +1320,6 @@
                   <c:v>GOOGL アルファベット A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NVDA エヌビディア</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>TSM 台湾セミコンダクター ADR</c:v>
                 </c:pt>
               </c:strCache>
@@ -1285,10 +1327,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$15</c:f>
+              <c:f>Sheet1!$E$8:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>25.6</c:v>
                 </c:pt>
@@ -1299,19 +1341,16 @@
                   <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0505866715959407</c:v>
+                  <c:v>62.617396868499455</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.391287508692248</c:v>
+                  <c:v>22.294339034129091</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5153819747022634</c:v>
+                  <c:v>7.8326502622580101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.081024936843683</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.9617189081658708</c:v>
+                  <c:v>7.2556138351134463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,7 +1412,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3723,16 +3762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>32385</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577180</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>32385</xdr:rowOff>
+      <xdr:colOff>152600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3760,15 +3799,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1123950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>53950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>150000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3795,16 +3834,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3833,7 +3872,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -4129,18 +4168,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0819EC9-0815-4887-B40D-DEFB505EBFAA}">
-  <dimension ref="D8:H16"/>
+  <dimension ref="D8:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="127" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:9">
       <c r="D8" t="s">
         <v>0</v>
       </c>
@@ -4148,7 +4187,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:9">
       <c r="D9" t="s">
         <v>1</v>
       </c>
@@ -4156,7 +4195,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:9">
       <c r="D10" t="s">
         <v>2</v>
       </c>
@@ -4164,32 +4203,36 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:9">
       <c r="D11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <f>(F11/F16)*100</f>
-        <v>4.0505866715959407</v>
+        <v>62.617396868499455</v>
       </c>
       <c r="F11">
         <f>G11*H11</f>
-        <v>184.07</v>
+        <v>2730.25</v>
       </c>
       <c r="G11">
-        <v>184.07</v>
+        <v>109.21</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <f>F11/F16*100</f>
+        <v>62.617396868499455</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="4:9">
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12">
         <f>(F12/F16)*100</f>
-        <v>21.391287508692248</v>
+        <v>22.294339034129091</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F15" si="0">G12*H12</f>
@@ -4201,14 +4244,18 @@
       <c r="H12">
         <v>8</v>
       </c>
+      <c r="I12">
+        <f>F12/F16*100</f>
+        <v>22.294339034129091</v>
+      </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:9">
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13">
         <f>(F13/F16)*100</f>
-        <v>7.5153819747022634</v>
+        <v>7.8326502622580101</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -4220,49 +4267,61 @@
       <c r="H13">
         <v>2</v>
       </c>
+      <c r="I13">
+        <f>F13/F16*100</f>
+        <v>7.8326502622580101</v>
+      </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="4:9">
       <c r="D14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <f>(F14/F16)*100</f>
-        <v>60.081024936843683</v>
+        <v>7.2556138351134463</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>2730.25</v>
+        <f>G14*H14</f>
+        <v>316.36</v>
       </c>
       <c r="G14">
-        <v>109.21</v>
+        <v>158.18</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f>F14/F16*100</f>
+        <v>7.2556138351134463</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="4:9">
       <c r="D15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <f>(F15/F16)*100</f>
-        <v>6.9617189081658708</v>
+        <v>4.2215856575715387</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>316.36</v>
+        <f>G15*H15</f>
+        <v>184.07</v>
       </c>
       <c r="G15">
-        <v>158.18</v>
+        <v>184.07</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f>F15/F16*100</f>
+        <v>4.2215856575715387</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="4:9">
       <c r="F16">
-        <f>SUM(F11:F15)</f>
-        <v>4544.28</v>
+        <f>SUM(F11:F14)</f>
+        <v>4360.21</v>
       </c>
     </row>
   </sheetData>
